--- a/data/trans_orig/IP3103-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3103-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE74B5C-B7EF-470A-ADEE-861BACE53DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECDE34C-7702-4CB2-9EAD-E531E1418F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0E3BABB9-63D5-4FB4-AEF4-23D7CE6E9465}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EE2D8D6B-48D9-4B8A-AA0D-26AFA39D587A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -100,34 +160,31 @@
     <t>50,27%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -160,69 +217,201 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
     <t>51,24%</t>
   </si>
   <si>
@@ -250,39 +439,36 @@
     <t>52,37%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
@@ -298,190 +484,55 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>49,34%</t>
@@ -511,28 +562,31 @@
     <t>50,78%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -562,63 +616,60 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,71%)</t>
   </si>
   <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
     <t>42,8%</t>
   </si>
   <si>
@@ -646,31 +697,28 @@
     <t>45,32%</t>
   </si>
   <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -688,52 +736,175 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>40,87%</t>
@@ -763,28 +934,31 @@
     <t>49,38%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -802,178 +976,58 @@
     <t>1,2%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>44,8%</t>
@@ -1003,31 +1057,31 @@
     <t>47,84%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -1051,63 +1105,63 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2015 (Tasa respuesta: 92,9%)</t>
   </si>
   <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
     <t>35,31%</t>
   </si>
   <si>
@@ -1132,31 +1186,28 @@
     <t>36,72%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -1174,55 +1225,169 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>34,92%</t>
@@ -1249,31 +1414,28 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>1,44%</t>
@@ -1285,166 +1447,58 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>35,78%</t>
@@ -1474,31 +1528,31 @@
     <t>38,62%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -1514,60 +1568,6 @@
   </si>
   <si>
     <t>0,98%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE700F80-287A-4AEA-8C6B-6A3880EC538C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC960A9-5C3A-4D19-A9BA-05E995D2F586}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2077,10 +2077,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>83414</v>
+        <v>7668</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2092,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>75042</v>
+        <v>15620</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2107,10 +2107,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>158456</v>
+        <v>23288</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2179,10 +2179,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7">
-        <v>2157</v>
+        <v>83414</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2194,10 +2194,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="I6" s="7">
-        <v>1673</v>
+        <v>75042</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2209,10 +2209,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="N6" s="7">
-        <v>3830</v>
+        <v>158456</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2230,10 +2230,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>7668</v>
+        <v>14498</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2245,10 +2245,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>15620</v>
+        <v>17472</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2260,64 +2260,64 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>23288</v>
+        <v>31970</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2157</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7">
-        <v>14498</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1673</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7">
-        <v>17472</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3830</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M8" s="7">
-        <v>49</v>
-      </c>
-      <c r="N8" s="7">
-        <v>31970</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>57</v>
@@ -2385,10 +2385,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>143681</v>
+        <v>9674</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2400,10 +2400,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>121699</v>
+        <v>3761</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2415,10 +2415,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>265381</v>
+        <v>13435</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -2436,10 +2436,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>102091</v>
+        <v>75461</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2451,10 +2451,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7">
-        <v>113498</v>
+        <v>69850</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2466,10 +2466,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="N11" s="7">
-        <v>215589</v>
+        <v>145311</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -2487,10 +2487,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="D12" s="7">
-        <v>698</v>
+        <v>105686</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2502,34 +2502,34 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>105670</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="N12" s="7">
-        <v>698</v>
+        <v>211355</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,100 +2538,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>10979</v>
+        <v>23340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>6113</v>
+        <v>23880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>17092</v>
+        <v>47220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>22935</v>
+        <v>2546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>22816</v>
+        <v>642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>45751</v>
+        <v>3188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,10 +2640,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7">
-        <v>280384</v>
+        <v>216707</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -2655,10 +2655,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="I15" s="7">
-        <v>264127</v>
+        <v>203802</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2670,10 +2670,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>812</v>
+        <v>630</v>
       </c>
       <c r="N15" s="7">
-        <v>544511</v>
+        <v>420509</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -2687,55 +2687,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>105686</v>
+        <v>10979</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>105670</v>
+        <v>6113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>211355</v>
+        <v>17092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,49 +2744,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D17" s="7">
-        <v>75461</v>
+        <v>102091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="I17" s="7">
-        <v>69850</v>
+        <v>113498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="N17" s="7">
-        <v>145311</v>
+        <v>215589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,49 +2795,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="D18" s="7">
-        <v>2546</v>
+        <v>143681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="I18" s="7">
-        <v>642</v>
+        <v>121699</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>398</v>
       </c>
       <c r="N18" s="7">
-        <v>3188</v>
+        <v>265381</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,97 +2846,97 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>9674</v>
+        <v>22935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>3761</v>
+        <v>22816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>13435</v>
+        <v>45751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>23340</v>
+        <v>698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>23880</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>47220</v>
+        <v>698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>147</v>
@@ -2948,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="D21" s="7">
-        <v>216707</v>
+        <v>280384</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -2963,10 +2963,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>203802</v>
+        <v>264127</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2978,10 +2978,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>630</v>
+        <v>812</v>
       </c>
       <c r="N21" s="7">
-        <v>420509</v>
+        <v>544511</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -3001,10 +3001,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>503</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>332781</v>
+        <v>28322</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>148</v>
@@ -3016,10 +3016,10 @@
         <v>150</v>
       </c>
       <c r="H22" s="7">
-        <v>453</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>302411</v>
+        <v>25494</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>151</v>
@@ -3031,10 +3031,10 @@
         <v>153</v>
       </c>
       <c r="M22" s="7">
-        <v>956</v>
+        <v>82</v>
       </c>
       <c r="N22" s="7">
-        <v>635192</v>
+        <v>53815</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>154</v>
@@ -3076,7 +3076,7 @@
         <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>161</v>
@@ -3103,10 +3103,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>503</v>
       </c>
       <c r="D24" s="7">
-        <v>5401</v>
+        <v>332781</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>165</v>
@@ -3118,10 +3118,10 @@
         <v>167</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>453</v>
       </c>
       <c r="I24" s="7">
-        <v>2315</v>
+        <v>302411</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>168</v>
@@ -3133,10 +3133,10 @@
         <v>170</v>
       </c>
       <c r="M24" s="7">
-        <v>12</v>
+        <v>956</v>
       </c>
       <c r="N24" s="7">
-        <v>7716</v>
+        <v>635192</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>171</v>
@@ -3154,10 +3154,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7">
-        <v>28322</v>
+        <v>60773</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>174</v>
@@ -3169,10 +3169,10 @@
         <v>176</v>
       </c>
       <c r="H25" s="7">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I25" s="7">
-        <v>25494</v>
+        <v>64168</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>177</v>
@@ -3184,10 +3184,10 @@
         <v>179</v>
       </c>
       <c r="M25" s="7">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="N25" s="7">
-        <v>53815</v>
+        <v>124941</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>180</v>
@@ -3202,13 +3202,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>60773</v>
+        <v>5401</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>183</v>
@@ -3220,10 +3220,10 @@
         <v>185</v>
       </c>
       <c r="H26" s="7">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>64168</v>
+        <v>2315</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>186</v>
@@ -3235,10 +3235,10 @@
         <v>188</v>
       </c>
       <c r="M26" s="7">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N26" s="7">
-        <v>124941</v>
+        <v>7716</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>189</v>
@@ -3317,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E81CAF-61DA-44BA-8F23-3E50A76EEC50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB402E1-14F1-4298-8D42-4401E7B9C13D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3435,10 +3435,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>77145</v>
+        <v>30894</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>193</v>
@@ -3450,10 +3450,10 @@
         <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>65627</v>
+        <v>22265</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>196</v>
@@ -3465,19 +3465,19 @@
         <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>142772</v>
+        <v>53159</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3492,13 @@
         <v>46973</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -3507,13 +3507,13 @@
         <v>48461</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -3522,13 +3522,13 @@
         <v>95434</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,49 +3537,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7">
-        <v>1394</v>
+        <v>77145</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>212</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>65627</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="N6" s="7">
-        <v>1394</v>
+        <v>142772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,97 +3588,97 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>30894</v>
+        <v>23858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>22265</v>
+        <v>31664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>53159</v>
+        <v>55522</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>23858</v>
+        <v>1394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>31664</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>55522</v>
+        <v>1394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>231</v>
@@ -3743,10 +3743,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>110460</v>
+        <v>18265</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>232</v>
@@ -3758,10 +3758,10 @@
         <v>234</v>
       </c>
       <c r="H10" s="7">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>129698</v>
+        <v>22170</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>235</v>
@@ -3773,19 +3773,19 @@
         <v>237</v>
       </c>
       <c r="M10" s="7">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>240158</v>
+        <v>40436</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,49 +3794,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7">
-        <v>86392</v>
+        <v>63209</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>89</v>
+      </c>
+      <c r="I11" s="7">
+        <v>62908</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="7">
-        <v>100</v>
-      </c>
-      <c r="I11" s="7">
-        <v>69384</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>177</v>
+      </c>
+      <c r="N11" s="7">
+        <v>126117</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="M11" s="7">
-        <v>230</v>
-      </c>
-      <c r="N11" s="7">
-        <v>155776</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +3845,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7">
-        <v>1340</v>
+        <v>121441</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="I12" s="7">
-        <v>1301</v>
+        <v>107360</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>2640</v>
+        <v>228801</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,91 +3896,91 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>24741</v>
+        <v>35723</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>23213</v>
+        <v>34900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>47954</v>
+        <v>70623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>47336</v>
+        <v>674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>32206</v>
+        <v>1412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>79542</v>
+        <v>2086</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>269</v>
@@ -3998,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="D15" s="7">
-        <v>270268</v>
+        <v>239312</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -4013,10 +4013,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="I15" s="7">
-        <v>255802</v>
+        <v>228750</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -4028,10 +4028,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>762</v>
+        <v>651</v>
       </c>
       <c r="N15" s="7">
-        <v>526070</v>
+        <v>468062</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -4045,16 +4045,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>121441</v>
+        <v>24741</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>272</v>
@@ -4066,10 +4066,10 @@
         <v>274</v>
       </c>
       <c r="H16" s="7">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>107360</v>
+        <v>23213</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>275</v>
@@ -4081,10 +4081,10 @@
         <v>277</v>
       </c>
       <c r="M16" s="7">
-        <v>317</v>
+        <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>228801</v>
+        <v>47954</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>278</v>
@@ -4102,10 +4102,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="D17" s="7">
-        <v>63209</v>
+        <v>86392</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>281</v>
@@ -4117,10 +4117,10 @@
         <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7">
-        <v>62908</v>
+        <v>69384</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>284</v>
@@ -4132,10 +4132,10 @@
         <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>126117</v>
+        <v>155776</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>287</v>
@@ -4144,7 +4144,7 @@
         <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,49 +4153,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D18" s="7">
-        <v>674</v>
+        <v>110460</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>291</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="I18" s="7">
-        <v>1412</v>
+        <v>129698</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>347</v>
       </c>
       <c r="N18" s="7">
-        <v>2086</v>
+        <v>240158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,97 +4204,97 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>18265</v>
+        <v>47336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7">
-        <v>22170</v>
+        <v>32206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>40436</v>
+        <v>79542</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>35723</v>
+        <v>1340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>34900</v>
+        <v>1301</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2640</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M20" s="7">
-        <v>96</v>
-      </c>
-      <c r="N20" s="7">
-        <v>70623</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>311</v>
@@ -4306,10 +4306,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="D21" s="7">
-        <v>239312</v>
+        <v>270268</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -4321,10 +4321,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="I21" s="7">
-        <v>228750</v>
+        <v>255802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4336,10 +4336,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>651</v>
+        <v>762</v>
       </c>
       <c r="N21" s="7">
-        <v>468062</v>
+        <v>526070</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -4359,10 +4359,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>441</v>
+        <v>107</v>
       </c>
       <c r="D22" s="7">
-        <v>309046</v>
+        <v>73900</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>312</v>
@@ -4374,10 +4374,10 @@
         <v>314</v>
       </c>
       <c r="H22" s="7">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="I22" s="7">
-        <v>302685</v>
+        <v>67649</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>315</v>
@@ -4389,10 +4389,10 @@
         <v>317</v>
       </c>
       <c r="M22" s="7">
-        <v>874</v>
+        <v>207</v>
       </c>
       <c r="N22" s="7">
-        <v>611731</v>
+        <v>141549</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>318</v>
@@ -4461,49 +4461,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>441</v>
       </c>
       <c r="D24" s="7">
-        <v>3407</v>
+        <v>309046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>433</v>
       </c>
       <c r="I24" s="7">
-        <v>2712</v>
+        <v>302685</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>874</v>
       </c>
       <c r="N24" s="7">
-        <v>6120</v>
+        <v>611731</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,91 +4512,91 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D25" s="7">
-        <v>73900</v>
+        <v>106917</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I25" s="7">
-        <v>67649</v>
+        <v>98770</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="N25" s="7">
-        <v>141549</v>
+        <v>205687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>106917</v>
+        <v>3407</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>98770</v>
+        <v>2712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>351</v>
       </c>
       <c r="M26" s="7">
-        <v>287</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>205687</v>
+        <v>6120</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>352</v>
@@ -4675,7 +4675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A18747-08C2-4DDF-8530-CEFB55A4AD76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B5B37A-241C-4FE1-B2AA-2AB682BA4350}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4793,49 +4793,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>59189</v>
+        <v>47657</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I4" s="7">
-        <v>45862</v>
+        <v>49188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N4" s="7">
-        <v>105051</v>
+        <v>96846</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4850,13 @@
         <v>46286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -4865,13 +4865,13 @@
         <v>42191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4880,13 +4880,13 @@
         <v>88477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,49 +4895,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7">
-        <v>607</v>
+        <v>59189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="I6" s="7">
-        <v>1541</v>
+        <v>45862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="N6" s="7">
-        <v>2149</v>
+        <v>105051</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,94 +4946,94 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>47657</v>
+        <v>13871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>49188</v>
+        <v>15707</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>96846</v>
+        <v>29578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>13871</v>
+        <v>607</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>15707</v>
+        <v>1541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>29578</v>
+        <v>2149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>393</v>
@@ -5101,10 +5101,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>97345</v>
+        <v>58585</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>395</v>
@@ -5113,28 +5113,28 @@
         <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="7">
+        <v>87</v>
+      </c>
+      <c r="I10" s="7">
+        <v>56137</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H10" s="7">
-        <v>163</v>
-      </c>
-      <c r="I10" s="7">
-        <v>115821</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="M10" s="7">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>213165</v>
+        <v>114722</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>400</v>
@@ -5152,10 +5152,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>76149</v>
+        <v>69563</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>403</v>
@@ -5167,10 +5167,10 @@
         <v>405</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>63169</v>
+        <v>68824</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>406</v>
@@ -5182,10 +5182,10 @@
         <v>408</v>
       </c>
       <c r="M11" s="7">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="N11" s="7">
-        <v>139318</v>
+        <v>138387</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>409</v>
@@ -5203,49 +5203,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7">
-        <v>713</v>
+        <v>92605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="I12" s="7">
-        <v>657</v>
+        <v>81663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="N12" s="7">
-        <v>1370</v>
+        <v>174268</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,100 +5254,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>73784</v>
+        <v>27099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>54447</v>
+        <v>25305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M13" s="7">
+        <v>75</v>
+      </c>
+      <c r="N13" s="7">
+        <v>52404</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="M13" s="7">
-        <v>178</v>
-      </c>
-      <c r="N13" s="7">
-        <v>128231</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>30748</v>
+        <v>2199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>33020</v>
+        <v>1288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>63767</v>
+        <v>3488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,10 +5356,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D15" s="7">
-        <v>278739</v>
+        <v>250052</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -5371,10 +5371,10 @@
         <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="I15" s="7">
-        <v>267113</v>
+        <v>233217</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -5386,10 +5386,10 @@
         <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="N15" s="7">
-        <v>545852</v>
+        <v>483269</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7">
-        <v>92605</v>
+        <v>73784</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>432</v>
@@ -5424,10 +5424,10 @@
         <v>434</v>
       </c>
       <c r="H16" s="7">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>81663</v>
+        <v>54447</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>435</v>
@@ -5439,10 +5439,10 @@
         <v>437</v>
       </c>
       <c r="M16" s="7">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>174268</v>
+        <v>128231</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>438</v>
@@ -5460,10 +5460,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" s="7">
-        <v>69563</v>
+        <v>76149</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>441</v>
@@ -5472,37 +5472,37 @@
         <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>68824</v>
+        <v>63169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="N17" s="7">
-        <v>138387</v>
+        <v>139318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,49 +5511,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>2199</v>
+        <v>97345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>1288</v>
+        <v>115821</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="N18" s="7">
-        <v>3488</v>
+        <v>213165</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,97 +5562,97 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>58585</v>
+        <v>30748</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>56137</v>
+        <v>33020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>457</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M19" s="7">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="N19" s="7">
-        <v>114722</v>
+        <v>63767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>27099</v>
+        <v>713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>462</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>463</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>25305</v>
+        <v>657</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>467</v>
       </c>
       <c r="M20" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>52404</v>
+        <v>1370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>462</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>468</v>
@@ -5664,10 +5664,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D21" s="7">
-        <v>250052</v>
+        <v>278739</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -5679,10 +5679,10 @@
         <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>233217</v>
+        <v>267113</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -5694,10 +5694,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>483269</v>
+        <v>545852</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5717,10 +5717,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="D22" s="7">
-        <v>249139</v>
+        <v>180027</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>469</v>
@@ -5732,10 +5732,10 @@
         <v>471</v>
       </c>
       <c r="H22" s="7">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="I22" s="7">
-        <v>243346</v>
+        <v>159772</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>472</v>
@@ -5747,10 +5747,10 @@
         <v>474</v>
       </c>
       <c r="M22" s="7">
-        <v>716</v>
+        <v>508</v>
       </c>
       <c r="N22" s="7">
-        <v>492484</v>
+        <v>339799</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>475</v>
@@ -5819,49 +5819,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>353</v>
       </c>
       <c r="D24" s="7">
-        <v>3520</v>
+        <v>249139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>251</v>
+        <v>487</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="I24" s="7">
-        <v>3487</v>
+        <v>243346</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>716</v>
       </c>
       <c r="N24" s="7">
-        <v>7006</v>
+        <v>492484</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>35</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,97 +5870,97 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>180027</v>
+        <v>71718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="I25" s="7">
-        <v>159772</v>
+        <v>74031</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
-        <v>508</v>
+        <v>203</v>
       </c>
       <c r="N25" s="7">
-        <v>339799</v>
+        <v>145750</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>71718</v>
+        <v>3520</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>501</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>393</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>74031</v>
+        <v>3487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M26" s="7">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>145750</v>
+        <v>7006</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>508</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>509</v>

--- a/data/trans_orig/IP3103-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3103-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2D2F96-D2C0-4650-BC66-44336FB57669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53F1675-57B2-4BE9-8D8A-CD1FE9092DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D10C2E9B-159D-43F8-8935-75E9182D351D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A6A2228-25C9-4054-934D-BF6DBC8D38C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="608">
   <si>
     <t>Menores según la frecuencia de tomar pescado, carne en 2007 (Tasa respuesta: 93,39%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>7,5%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -100,1765 +100,1714 @@
     <t>6,22%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2016 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2015 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
     <t>12,19%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>34,23%</t>
   </si>
   <si>
     <t>36,45%</t>
@@ -1867,58 +1816,52 @@
     <t>34,31%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>29,57%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>28,97%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>27,13%</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C59E0C3-EDD0-4BF0-B0A2-183311DDF1E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151A131D-C811-4179-9BC6-3E2FF1D44E0C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2984,10 +2927,10 @@
         <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2996,13 +2939,13 @@
         <v>15586</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3001,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3070,13 +3013,13 @@
         <v>1242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3085,13 +3028,13 @@
         <v>642</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3100,13 +3043,13 @@
         <v>1884</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3064,13 @@
         <v>14370</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3136,13 +3079,13 @@
         <v>16384</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -3151,13 +3094,13 @@
         <v>30754</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3115,13 @@
         <v>75800</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>91</v>
@@ -3187,13 +3130,13 @@
         <v>60164</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>205</v>
@@ -3202,13 +3145,13 @@
         <v>135965</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3166,13 @@
         <v>42575</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3238,13 +3181,13 @@
         <v>47398</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -3253,13 +3196,13 @@
         <v>89973</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3217,13 @@
         <v>6247</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3289,13 +3232,13 @@
         <v>1499</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3304,13 +3247,13 @@
         <v>7746</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3309,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3378,13 +3321,13 @@
         <v>698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3414,7 +3357,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3372,13 @@
         <v>18069</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3444,13 +3387,13 @@
         <v>16280</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -3459,13 +3402,13 @@
         <v>34349</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3423,13 @@
         <v>100924</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -3495,13 +3438,13 @@
         <v>85973</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>281</v>
@@ -3510,13 +3453,13 @@
         <v>186898</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3474,13 @@
         <v>76876</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>126</v>
@@ -3546,13 +3489,13 @@
         <v>85579</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>242</v>
@@ -3561,13 +3504,13 @@
         <v>162456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3525,13 @@
         <v>8998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3597,13 +3540,13 @@
         <v>5471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -3612,13 +3555,13 @@
         <v>14469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3629,13 @@
         <v>5401</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3701,13 +3644,13 @@
         <v>2315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3716,13 +3659,13 @@
         <v>7716</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3680,13 @@
         <v>60773</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -3752,13 +3695,13 @@
         <v>64168</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -3767,13 +3710,13 @@
         <v>124941</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3734,10 @@
         <v>29</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>453</v>
@@ -3803,13 +3746,13 @@
         <v>302411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>956</v>
@@ -3818,13 +3761,13 @@
         <v>635192</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3782,13 @@
         <v>247232</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>359</v>
@@ -3854,13 +3797,13 @@
         <v>242972</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>730</v>
@@ -3869,13 +3812,13 @@
         <v>490203</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3833,13 @@
         <v>28322</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -3905,13 +3848,13 @@
         <v>25494</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>82</v>
@@ -3920,13 +3863,13 @@
         <v>53815</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,7 +3925,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4002,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8800E4F9-EDE6-4193-8771-21965D4A2770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C4D617-6DCC-4FF0-B97B-3910EF063F15}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4019,7 +3962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4126,13 +4069,13 @@
         <v>793</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4147,7 +4090,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4156,13 +4099,13 @@
         <v>793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4120,13 @@
         <v>14925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4192,13 +4135,13 @@
         <v>19609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4207,13 +4150,13 @@
         <v>34533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4171,13 @@
         <v>32375</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -4243,13 +4186,13 @@
         <v>34606</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M6" s="7">
         <v>99</v>
@@ -4258,13 +4201,13 @@
         <v>66981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4222,13 @@
         <v>18944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4294,13 +4237,13 @@
         <v>22971</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4309,13 +4252,13 @@
         <v>41915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4273,13 @@
         <v>20053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4345,13 +4288,13 @@
         <v>12754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4360,13 +4303,13 @@
         <v>32807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4377,13 @@
         <v>1274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4449,13 +4392,13 @@
         <v>1412</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4464,13 +4407,13 @@
         <v>2686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4428,13 @@
         <v>33350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -4500,13 +4443,13 @@
         <v>33101</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -4515,13 +4458,13 @@
         <v>66452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4479,13 @@
         <v>135942</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>151</v>
@@ -4551,13 +4494,13 @@
         <v>104530</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M12" s="7">
         <v>339</v>
@@ -4566,13 +4509,13 @@
         <v>240473</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4530,13 @@
         <v>74722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -4602,13 +4545,13 @@
         <v>69491</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -4617,13 +4560,13 @@
         <v>144213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4581,13 @@
         <v>21703</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4653,13 +4596,13 @@
         <v>26323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -4668,13 +4611,13 @@
         <v>48027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4748,7 +4691,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4763,7 +4706,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4778,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4736,13 @@
         <v>26917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4808,13 +4751,13 @@
         <v>22352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -4823,13 +4766,13 @@
         <v>49270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4787,13 @@
         <v>68260</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>116</v>
@@ -4859,13 +4802,13 @@
         <v>82694</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>214</v>
@@ -4874,13 +4817,13 @@
         <v>150955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4838,13 @@
         <v>43633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -4910,13 +4853,13 @@
         <v>39946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4925,13 +4868,13 @@
         <v>83580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4889,13 @@
         <v>18451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4961,13 +4904,13 @@
         <v>11441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -4976,13 +4919,13 @@
         <v>29892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,7 +4981,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5050,13 +4993,13 @@
         <v>1340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5065,13 +5008,13 @@
         <v>1301</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5080,13 +5023,13 @@
         <v>2640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5044,13 @@
         <v>31725</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -5116,13 +5059,13 @@
         <v>23708</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -5131,13 +5074,13 @@
         <v>55433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5095,13 @@
         <v>72469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -5167,13 +5110,13 @@
         <v>80854</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>222</v>
@@ -5182,13 +5125,13 @@
         <v>153323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>245</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5146,13 @@
         <v>59275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -5218,13 +5161,13 @@
         <v>48345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -5233,13 +5176,13 @@
         <v>107620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5197,13 @@
         <v>13693</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -5269,13 +5212,13 @@
         <v>17130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5284,13 +5227,13 @@
         <v>30823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5301,13 @@
         <v>3407</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5373,13 +5316,13 @@
         <v>2712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5388,13 +5331,13 @@
         <v>6120</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>395</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5352,13 @@
         <v>106917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -5424,13 +5367,13 @@
         <v>98770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -5439,13 +5382,13 @@
         <v>205687</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5403,13 @@
         <v>309046</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H30" s="7">
         <v>433</v>
@@ -5475,13 +5418,13 @@
         <v>302685</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M30" s="7">
         <v>874</v>
@@ -5490,13 +5433,13 @@
         <v>611731</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>412</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5454,13 @@
         <v>196574</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H31" s="7">
         <v>263</v>
@@ -5526,13 +5469,13 @@
         <v>180753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M31" s="7">
         <v>548</v>
@@ -5541,13 +5484,13 @@
         <v>377327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5505,13 @@
         <v>73900</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -5577,13 +5520,13 @@
         <v>67649</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>207</v>
@@ -5592,13 +5535,13 @@
         <v>141549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>77</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,7 +5597,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5674,7 +5617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B112B1C-F1E5-4332-AD4E-3D37B2E3B3EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02C610B-FBCE-4B34-AA68-292AAA49C703}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5691,7 +5634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5804,7 +5747,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5813,13 +5756,13 @@
         <v>1541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5828,13 +5771,13 @@
         <v>1541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5792,13 @@
         <v>4554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5864,13 +5807,13 @@
         <v>8401</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -5879,13 +5822,13 @@
         <v>12955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5843,13 @@
         <v>24027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>40</v>
@@ -5915,13 +5858,13 @@
         <v>25717</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -5930,13 +5873,13 @@
         <v>49744</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,16 +5891,16 @@
         <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>23786</v>
+        <v>23785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -5966,13 +5909,13 @@
         <v>19824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -5981,13 +5924,13 @@
         <v>43609</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5945,13 @@
         <v>26245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -6017,13 +5960,13 @@
         <v>30508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -6032,13 +5975,13 @@
         <v>56753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +5993,7 @@
         <v>119</v>
       </c>
       <c r="D9" s="7">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -6112,7 +6055,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6127,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6136,13 +6079,13 @@
         <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6100,13 @@
         <v>26720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6172,13 +6115,13 @@
         <v>23214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -6187,13 +6130,13 @@
         <v>49934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6151,13 @@
         <v>98775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -6223,13 +6166,13 @@
         <v>64820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
         <v>248</v>
@@ -6238,13 +6181,13 @@
         <v>163595</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6202,13 @@
         <v>73574</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -6274,13 +6217,13 @@
         <v>66817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>488</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -6289,13 +6232,13 @@
         <v>140390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6253,13 @@
         <v>58385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -6325,13 +6268,13 @@
         <v>54552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M14" s="7">
         <v>179</v>
@@ -6340,13 +6283,13 @@
         <v>112937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6414,13 +6357,13 @@
         <v>2199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6429,13 +6372,13 @@
         <v>1945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6444,13 +6387,13 @@
         <v>4145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6408,13 @@
         <v>23817</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -6480,13 +6423,13 @@
         <v>24063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -6495,13 +6438,13 @@
         <v>47880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6459,13 @@
         <v>68828</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H18" s="7">
         <v>110</v>
@@ -6531,13 +6474,13 @@
         <v>75514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M18" s="7">
         <v>205</v>
@@ -6546,13 +6489,13 @@
         <v>144343</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6510,13 @@
         <v>48527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -6582,13 +6525,13 @@
         <v>44866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -6597,13 +6540,13 @@
         <v>93393</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6561,13 @@
         <v>45201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -6633,13 +6576,13 @@
         <v>39737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -6648,13 +6591,13 @@
         <v>84938</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,7 +6653,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6722,13 +6665,13 @@
         <v>713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6743,7 +6686,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6752,13 +6695,13 @@
         <v>713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6716,13 @@
         <v>16627</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -6788,13 +6731,13 @@
         <v>18353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6803,13 +6746,13 @@
         <v>34980</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6767,13 @@
         <v>57508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -6839,13 +6782,13 @@
         <v>77295</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>564</v>
+        <v>205</v>
       </c>
       <c r="M24" s="7">
         <v>187</v>
@@ -6854,13 +6797,13 @@
         <v>134804</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6818,13 @@
         <v>46112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -6890,13 +6833,13 @@
         <v>42677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>572</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -6905,13 +6848,13 @@
         <v>88790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6869,13 @@
         <v>50196</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -6941,13 +6884,13 @@
         <v>34975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -6956,13 +6899,13 @@
         <v>85171</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>583</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>585</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +6973,13 @@
         <v>3520</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>469</v>
+        <v>572</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -7045,13 +6988,13 @@
         <v>3487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>587</v>
+        <v>110</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -7060,13 +7003,13 @@
         <v>7006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7024,13 @@
         <v>71718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -7096,13 +7039,13 @@
         <v>74031</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>595</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>203</v>
@@ -7111,13 +7054,13 @@
         <v>145750</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7075,13 @@
         <v>249139</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>363</v>
@@ -7147,13 +7090,13 @@
         <v>243346</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>606</v>
+        <v>36</v>
       </c>
       <c r="M30" s="7">
         <v>716</v>
@@ -7162,13 +7105,13 @@
         <v>492484</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7126,13 @@
         <v>191998</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="H31" s="7">
         <v>266</v>
@@ -7198,13 +7141,13 @@
         <v>174184</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>614</v>
+        <v>252</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -7213,13 +7156,13 @@
         <v>366182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>417</v>
+        <v>598</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7177,13 @@
         <v>180027</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="H32" s="7">
         <v>245</v>
@@ -7249,13 +7192,13 @@
         <v>159772</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="M32" s="7">
         <v>508</v>
@@ -7264,13 +7207,13 @@
         <v>339799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>625</v>
+        <v>566</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,7 +7269,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3103-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3103-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53F1675-57B2-4BE9-8D8A-CD1FE9092DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90D30127-5941-4C9A-A870-F592E3F2CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A6A2228-25C9-4054-934D-BF6DBC8D38C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D4C2F412-9C97-4FF9-AE7C-9E74D0A44B55}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="614">
   <si>
     <t>Menores según la frecuencia de tomar pescado, carne en 2007 (Tasa respuesta: 93,39%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1795 +73,1813 @@
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
   </si>
   <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
     <t>6,22%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>12,33%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>46,0%</t>
   </si>
   <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>5 o 6 veces a la semana</t>
   </si>
   <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
   </si>
   <si>
     <t>Todos los dias</t>
   </si>
   <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2016 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2016 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>27,07%</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151A131D-C811-4179-9BC6-3E2FF1D44E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4498EAFA-FB5C-429E-A548-090BC92A548C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2391,10 +2409,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1471</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2406,16 +2424,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2430,7 +2448,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2442,10 +2460,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>4745</v>
+        <v>6935</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2457,10 +2475,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>6935</v>
+        <v>4745</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -2493,10 +2511,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
-        <v>37670</v>
+        <v>28115</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -2508,10 +2526,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I6" s="7">
-        <v>28115</v>
+        <v>37670</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -2544,10 +2562,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>27370</v>
+        <v>20689</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -2559,10 +2577,10 @@
         <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>20689</v>
+        <v>27370</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -2595,10 +2613,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>5084</v>
+        <v>10930</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -2610,10 +2628,10 @@
         <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>10930</v>
+        <v>5084</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -2646,25 +2664,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66669</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
         <v>115</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>76341</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>101</v>
-      </c>
-      <c r="I9" s="7">
-        <v>66669</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -2702,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1990</v>
+        <v>1673</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2717,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1673</v>
+        <v>1990</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2750,10 +2768,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>23589</v>
+        <v>24570</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2765,10 +2783,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>24570</v>
+        <v>23589</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2801,10 +2819,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7">
-        <v>118386</v>
+        <v>128158</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -2816,10 +2834,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="I12" s="7">
-        <v>128158</v>
+        <v>118386</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -2828,7 +2846,7 @@
         <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>371</v>
@@ -2837,13 +2855,13 @@
         <v>246544</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,34 +2870,34 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
+        <v>132</v>
+      </c>
+      <c r="D13" s="7">
+        <v>89305</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="7">
         <v>150</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>100409</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="7">
-        <v>132</v>
-      </c>
-      <c r="I13" s="7">
-        <v>89305</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>282</v>
@@ -2888,13 +2906,13 @@
         <v>189715</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,28 +2924,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>7992</v>
+        <v>7594</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>7594</v>
+        <v>7992</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>100</v>
@@ -2954,25 +2972,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>376</v>
+      </c>
+      <c r="D15" s="7">
+        <v>251300</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
         <v>380</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>252366</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7">
-        <v>376</v>
-      </c>
-      <c r="I15" s="7">
-        <v>251300</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -3007,31 +3025,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1242</v>
+        <v>642</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>642</v>
+        <v>1242</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -3058,10 +3076,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>14370</v>
+        <v>16384</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>112</v>
@@ -3073,10 +3091,10 @@
         <v>114</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>16384</v>
+        <v>14370</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>115</v>
@@ -3109,10 +3127,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7">
-        <v>75800</v>
+        <v>60164</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>121</v>
@@ -3124,10 +3142,10 @@
         <v>123</v>
       </c>
       <c r="H18" s="7">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="I18" s="7">
-        <v>60164</v>
+        <v>75800</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>124</v>
@@ -3160,10 +3178,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>42575</v>
+        <v>47398</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>130</v>
@@ -3175,10 +3193,10 @@
         <v>132</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>47398</v>
+        <v>42575</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>133</v>
@@ -3211,31 +3229,31 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>6247</v>
+        <v>1499</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6247</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1499</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>143</v>
@@ -3262,25 +3280,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126086</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140235</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>189</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126086</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -3315,34 +3333,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3351,13 +3369,13 @@
         <v>698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,34 +3384,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16280</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="7">
         <v>26</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>18069</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="7">
-        <v>23</v>
-      </c>
-      <c r="I23" s="7">
-        <v>16280</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -3402,13 +3420,13 @@
         <v>34349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,34 +3435,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
+        <v>128</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85973</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="7">
         <v>153</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>100924</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="7">
-        <v>128</v>
-      </c>
-      <c r="I24" s="7">
-        <v>85973</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>281</v>
@@ -3453,13 +3471,13 @@
         <v>186898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,34 +3486,34 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
+        <v>126</v>
+      </c>
+      <c r="D25" s="7">
+        <v>85579</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="7">
         <v>116</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>76876</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="7">
-        <v>126</v>
-      </c>
-      <c r="I25" s="7">
-        <v>85579</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>242</v>
@@ -3504,13 +3522,13 @@
         <v>162456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,34 +3537,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5471</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="7">
         <v>13</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>8998</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5471</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -3555,13 +3573,13 @@
         <v>14469</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,25 +3588,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>309</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>205566</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193304</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -3623,34 +3641,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2315</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>5401</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2315</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3659,13 +3677,13 @@
         <v>7716</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,34 +3692,34 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>95</v>
+      </c>
+      <c r="D29" s="7">
+        <v>64168</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="7">
         <v>90</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>60773</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="7">
-        <v>95</v>
-      </c>
-      <c r="I29" s="7">
-        <v>64168</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -3710,13 +3728,13 @@
         <v>124941</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,34 +3743,34 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
+        <v>453</v>
+      </c>
+      <c r="D30" s="7">
+        <v>302411</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="7">
         <v>503</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>332781</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="7">
-        <v>453</v>
-      </c>
-      <c r="I30" s="7">
-        <v>302411</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>956</v>
@@ -3761,13 +3779,13 @@
         <v>635192</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,34 +3794,34 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
+        <v>359</v>
+      </c>
+      <c r="D31" s="7">
+        <v>242972</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="7">
         <v>371</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>247232</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" s="7">
-        <v>359</v>
-      </c>
-      <c r="I31" s="7">
-        <v>242972</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>730</v>
@@ -3812,13 +3830,13 @@
         <v>490203</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,34 +3845,34 @@
         <v>48</v>
       </c>
       <c r="C32" s="7">
+        <v>40</v>
+      </c>
+      <c r="D32" s="7">
+        <v>25494</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="7">
         <v>42</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>28322</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H32" s="7">
-        <v>40</v>
-      </c>
-      <c r="I32" s="7">
-        <v>25494</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>82</v>
@@ -3863,13 +3881,13 @@
         <v>53815</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,25 +3896,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>951</v>
+      </c>
+      <c r="D33" s="7">
+        <v>637360</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>1014</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>674508</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>951</v>
-      </c>
-      <c r="I33" s="7">
-        <v>637360</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -3925,7 +3943,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C4D617-6DCC-4FF0-B97B-3910EF063F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ECA45-4615-40B0-AA6C-B927F28F82CB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,7 +3980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4063,34 +4081,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4099,13 +4117,13 @@
         <v>793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,34 +4132,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19609</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14925</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19609</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4150,13 +4168,13 @@
         <v>34533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,34 +4183,34 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7">
+        <v>34606</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="7">
         <v>47</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>32375</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="7">
-        <v>52</v>
-      </c>
-      <c r="I6" s="7">
-        <v>34606</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>99</v>
@@ -4201,13 +4219,13 @@
         <v>66981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,34 +4234,34 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7">
+        <v>22971</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="7">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>18944</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="7">
-        <v>35</v>
-      </c>
-      <c r="I7" s="7">
-        <v>22971</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4252,13 +4270,13 @@
         <v>41915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,34 +4285,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12754</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" s="7">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>20053</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12754</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4303,13 +4321,13 @@
         <v>32807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,25 +4336,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7">
+        <v>89940</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
         <v>125</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>87090</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>137</v>
-      </c>
-      <c r="I9" s="7">
-        <v>89940</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -4374,31 +4392,31 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1274</v>
+        <v>1412</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1412</v>
+        <v>1274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4407,13 +4425,13 @@
         <v>2686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,31 +4443,31 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>33350</v>
+        <v>33102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>33101</v>
+        <v>33350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -4458,13 +4476,13 @@
         <v>66452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,34 +4491,34 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
+        <v>151</v>
+      </c>
+      <c r="D12" s="7">
+        <v>104531</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="7">
         <v>188</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>135942</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H12" s="7">
-        <v>151</v>
-      </c>
-      <c r="I12" s="7">
-        <v>104530</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>339</v>
@@ -4509,13 +4527,13 @@
         <v>240473</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,34 +4542,34 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7">
+        <v>69491</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="7">
         <v>104</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>74722</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" s="7">
-        <v>101</v>
-      </c>
-      <c r="I13" s="7">
-        <v>69491</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -4560,13 +4578,13 @@
         <v>144213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,34 +4593,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7">
+        <v>26324</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="7">
         <v>31</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>21703</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" s="7">
-        <v>38</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26323</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -4611,13 +4629,13 @@
         <v>48027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,25 +4644,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>338</v>
+      </c>
+      <c r="D15" s="7">
+        <v>234859</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
         <v>371</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>266991</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7">
-        <v>338</v>
-      </c>
-      <c r="I15" s="7">
-        <v>234858</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -4685,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4700,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4715,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,34 +4748,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>22352</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="7">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26917</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H17" s="7">
-        <v>31</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22352</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -4766,13 +4784,13 @@
         <v>49270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,34 +4799,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>116</v>
+      </c>
+      <c r="D18" s="7">
+        <v>82694</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" s="7">
         <v>98</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>68260</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H18" s="7">
-        <v>116</v>
-      </c>
-      <c r="I18" s="7">
-        <v>82694</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>214</v>
@@ -4817,13 +4835,13 @@
         <v>150955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,34 +4850,34 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7">
+        <v>39946</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="7">
         <v>64</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>43633</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H19" s="7">
-        <v>58</v>
-      </c>
-      <c r="I19" s="7">
-        <v>39946</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4868,13 +4886,13 @@
         <v>83580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,34 +4901,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11441</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="7">
         <v>27</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>18451</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="7">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11441</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -4919,13 +4937,13 @@
         <v>29892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,25 +4952,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>222</v>
+      </c>
+      <c r="D21" s="7">
+        <v>156434</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>226</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>157261</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>222</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156434</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -4990,31 +5008,31 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1340</v>
+        <v>1301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1301</v>
+        <v>1340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5023,13 +5041,13 @@
         <v>2640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,34 +5056,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23708</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="7">
         <v>44</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>31725</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H23" s="7">
-        <v>33</v>
-      </c>
-      <c r="I23" s="7">
-        <v>23708</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -5074,13 +5092,13 @@
         <v>55433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,34 +5107,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
+        <v>114</v>
+      </c>
+      <c r="D24" s="7">
+        <v>80854</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H24" s="7">
         <v>108</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>72469</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H24" s="7">
-        <v>114</v>
-      </c>
-      <c r="I24" s="7">
-        <v>80854</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M24" s="7">
         <v>222</v>
@@ -5125,13 +5143,13 @@
         <v>153323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,34 +5158,34 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7">
+        <v>48345</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H25" s="7">
         <v>89</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>59275</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H25" s="7">
-        <v>69</v>
-      </c>
-      <c r="I25" s="7">
-        <v>48345</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -5176,13 +5194,13 @@
         <v>107620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,34 +5209,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>17130</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="7">
         <v>20</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>13693</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" s="7">
-        <v>25</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17130</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5227,13 +5245,13 @@
         <v>30823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,25 +5260,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>263</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>178502</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>171337</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -5295,34 +5313,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2712</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3407</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2712</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>61</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5331,13 +5349,13 @@
         <v>6120</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,34 +5364,34 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>140</v>
+      </c>
+      <c r="D29" s="7">
+        <v>98770</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" s="7">
         <v>147</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>106917</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H29" s="7">
-        <v>140</v>
-      </c>
-      <c r="I29" s="7">
-        <v>98770</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -5382,13 +5400,13 @@
         <v>205687</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,28 +5415,28 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
+        <v>433</v>
+      </c>
+      <c r="D30" s="7">
+        <v>302685</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H30" s="7">
         <v>441</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>309046</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H30" s="7">
-        <v>433</v>
-      </c>
-      <c r="I30" s="7">
-        <v>302685</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>402</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>403</v>
@@ -5439,7 +5457,7 @@
         <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,34 +5466,34 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
+        <v>263</v>
+      </c>
+      <c r="D31" s="7">
+        <v>180753</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H31" s="7">
         <v>285</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>196574</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H31" s="7">
-        <v>263</v>
-      </c>
-      <c r="I31" s="7">
-        <v>180753</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M31" s="7">
         <v>548</v>
@@ -5484,13 +5502,13 @@
         <v>377327</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,34 +5517,34 @@
         <v>48</v>
       </c>
       <c r="C32" s="7">
+        <v>100</v>
+      </c>
+      <c r="D32" s="7">
+        <v>67649</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H32" s="7">
         <v>107</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>73900</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H32" s="7">
-        <v>100</v>
-      </c>
-      <c r="I32" s="7">
-        <v>67649</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>207</v>
@@ -5535,13 +5553,13 @@
         <v>141549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,25 +5568,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>940</v>
+      </c>
+      <c r="D33" s="7">
+        <v>652569</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>985</v>
       </c>
-      <c r="D33" s="7">
-        <v>689844</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>940</v>
-      </c>
       <c r="I33" s="7">
-        <v>652569</v>
+        <v>689845</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -5597,7 +5615,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5617,7 +5635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02C610B-FBCE-4B34-AA68-292AAA49C703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFEFC8B-AEAE-449C-9DF2-128D93115E06}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5735,34 +5753,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1541</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1541</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5771,13 +5789,13 @@
         <v>1541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,34 +5804,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8401</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" s="7">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>4554</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8401</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -5822,13 +5840,13 @@
         <v>12955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,34 +5855,34 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25717</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H6" s="7">
         <v>36</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>24027</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H6" s="7">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7">
-        <v>25717</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -5873,13 +5891,13 @@
         <v>49744</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,34 +5906,34 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7">
+        <v>19824</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H7" s="7">
         <v>35</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>23785</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H7" s="7">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7">
-        <v>19824</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -5924,13 +5942,13 @@
         <v>43609</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,34 +5957,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30508</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" s="7">
         <v>41</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>26245</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H8" s="7">
-        <v>49</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30508</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -5975,13 +5993,13 @@
         <v>56753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>461</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,25 +6008,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>138</v>
+      </c>
+      <c r="D9" s="7">
+        <v>85991</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
         <v>119</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>78611</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="7">
-        <v>138</v>
-      </c>
-      <c r="I9" s="7">
-        <v>85991</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -6043,34 +6061,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6079,13 +6097,13 @@
         <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,34 +6112,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7">
+        <v>23214</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H11" s="7">
         <v>38</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>26720</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H11" s="7">
-        <v>33</v>
-      </c>
-      <c r="I11" s="7">
-        <v>23214</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -6130,13 +6148,13 @@
         <v>49934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,34 +6163,34 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
+        <v>103</v>
+      </c>
+      <c r="D12" s="7">
+        <v>64820</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H12" s="7">
         <v>145</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>98775</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H12" s="7">
-        <v>103</v>
-      </c>
-      <c r="I12" s="7">
-        <v>64820</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>248</v>
@@ -6181,10 +6199,10 @@
         <v>163595</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>483</v>
@@ -6196,10 +6214,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="7">
-        <v>73574</v>
+        <v>66817</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>484</v>
@@ -6211,19 +6229,19 @@
         <v>486</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I13" s="7">
-        <v>66817</v>
+        <v>73574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -6232,13 +6250,13 @@
         <v>140390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,34 +6265,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7">
+        <v>54552</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H14" s="7">
         <v>90</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>58385</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="H14" s="7">
-        <v>89</v>
-      </c>
-      <c r="I14" s="7">
-        <v>54552</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>179</v>
@@ -6283,13 +6301,13 @@
         <v>112937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,25 +6316,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>330</v>
+      </c>
+      <c r="D15" s="7">
+        <v>209403</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7">
         <v>380</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>258061</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7">
-        <v>330</v>
-      </c>
-      <c r="I15" s="7">
-        <v>209403</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -6354,31 +6372,31 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2199</v>
+        <v>1945</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1945</v>
+        <v>2199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6387,13 +6405,13 @@
         <v>4145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>501</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,10 +6423,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>23817</v>
+        <v>24063</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>509</v>
@@ -6420,7 +6438,7 @@
         <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>24063</v>
+        <v>23817</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>511</v>
@@ -6444,7 +6462,7 @@
         <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,34 +6471,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>110</v>
+      </c>
+      <c r="D18" s="7">
+        <v>75514</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H18" s="7">
         <v>95</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>68828</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="H18" s="7">
-        <v>110</v>
-      </c>
-      <c r="I18" s="7">
-        <v>75514</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M18" s="7">
         <v>205</v>
@@ -6489,13 +6507,13 @@
         <v>144343</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,34 +6522,34 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44866</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H19" s="7">
         <v>68</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>48527</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="H19" s="7">
-        <v>65</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44866</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M19" s="7">
         <v>133</v>
@@ -6540,13 +6558,13 @@
         <v>93393</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,34 +6573,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7">
+        <v>39737</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H20" s="7">
         <v>64</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>45201</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="H20" s="7">
-        <v>57</v>
-      </c>
-      <c r="I20" s="7">
-        <v>39737</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -6597,7 +6615,7 @@
         <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,25 +6624,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>268</v>
+      </c>
+      <c r="D21" s="7">
+        <v>186126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>263</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>188572</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>268</v>
-      </c>
-      <c r="I21" s="7">
-        <v>186126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -6659,31 +6677,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>541</v>
@@ -6698,10 +6716,10 @@
         <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,34 +6728,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>24</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18353</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="7">
         <v>22</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>16627</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H23" s="7">
-        <v>24</v>
-      </c>
-      <c r="I23" s="7">
-        <v>18353</v>
-      </c>
       <c r="J23" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>46</v>
@@ -6752,7 +6770,7 @@
         <v>548</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>549</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,34 +6779,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
+        <v>110</v>
+      </c>
+      <c r="D24" s="7">
+        <v>77295</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H24" s="7">
         <v>77</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>57508</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H24" s="7">
-        <v>110</v>
-      </c>
-      <c r="I24" s="7">
-        <v>77295</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M24" s="7">
         <v>187</v>
@@ -6812,10 +6830,10 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>46112</v>
+        <v>42677</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>558</v>
@@ -6824,22 +6842,22 @@
         <v>559</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="H25" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>42677</v>
+        <v>46112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>562</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -6848,13 +6866,13 @@
         <v>88790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,34 +6881,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7">
+        <v>34975</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H26" s="7">
         <v>68</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>50196</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="H26" s="7">
-        <v>50</v>
-      </c>
-      <c r="I26" s="7">
-        <v>34975</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -6899,13 +6917,13 @@
         <v>85171</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>573</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,25 +6932,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>246</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>231</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>171157</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>246</v>
-      </c>
-      <c r="I27" s="7">
-        <v>173301</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -6970,31 +6988,31 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>3520</v>
+        <v>3487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>576</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>572</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>3487</v>
+        <v>3520</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>573</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -7003,13 +7021,13 @@
         <v>7006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,34 +7036,34 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7">
+        <v>74031</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H29" s="7">
         <v>100</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>71718</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="H29" s="7">
-        <v>103</v>
-      </c>
-      <c r="I29" s="7">
-        <v>74031</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>203</v>
@@ -7054,13 +7072,13 @@
         <v>145750</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,34 +7087,34 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
+        <v>363</v>
+      </c>
+      <c r="D30" s="7">
+        <v>243346</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H30" s="7">
         <v>353</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>249139</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="H30" s="7">
-        <v>363</v>
-      </c>
-      <c r="I30" s="7">
-        <v>243346</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>36</v>
+        <v>594</v>
       </c>
       <c r="M30" s="7">
         <v>716</v>
@@ -7105,13 +7123,13 @@
         <v>492484</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,34 +7138,34 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
+        <v>266</v>
+      </c>
+      <c r="D31" s="7">
+        <v>174184</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H31" s="7">
         <v>272</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>191998</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="H31" s="7">
-        <v>266</v>
-      </c>
-      <c r="I31" s="7">
-        <v>174184</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>252</v>
+        <v>602</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="M31" s="7">
         <v>538</v>
@@ -7156,13 +7174,13 @@
         <v>366182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>599</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,34 +7189,34 @@
         <v>48</v>
       </c>
       <c r="C32" s="7">
+        <v>245</v>
+      </c>
+      <c r="D32" s="7">
+        <v>159772</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H32" s="7">
         <v>263</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>180027</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="H32" s="7">
-        <v>245</v>
-      </c>
-      <c r="I32" s="7">
-        <v>159772</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M32" s="7">
         <v>508</v>
@@ -7207,13 +7225,13 @@
         <v>339799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>566</v>
+        <v>612</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,25 +7240,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>982</v>
+      </c>
+      <c r="D33" s="7">
+        <v>654820</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>993</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>696402</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>982</v>
-      </c>
-      <c r="I33" s="7">
-        <v>654820</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -7269,7 +7287,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
